--- a/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_R303-HL7v3Ad" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R303-HL7v3Ad 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.603</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.603</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>enceinte</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>Masculin</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -258,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -364,20 +367,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -399,42 +410,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -456,34 +467,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,46 +73,43 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>JDV pour le champ d'application de l'intervalle de référence</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Masculin</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>JDV pour le champ d'application de l'intervalle de référence</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Féminin</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Masculin</t>
   </si>
   <si>
     <t>System URI</t>
@@ -261,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,28 +364,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -410,42 +399,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -467,34 +456,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,43 +76,40 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>JDV pour le champ d'application de l'intervalle de référence</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Masculin</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>JDV pour le champ d'application de l'intervalle de référence</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Féminin</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Masculin</t>
   </si>
   <si>
     <t>System URI</t>
@@ -261,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,28 +364,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -410,42 +399,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -467,34 +456,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J148-ReferenceRangeAppliesTo-CISIS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -52,7 +52,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>retired</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
